--- a/Legende2.xlsx
+++ b/Legende2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Downloads\Nouveau dossier\Collo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Downloads\Nouveau dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DB94AC-427E-482C-A558-61F3711CC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD80E30-6D2F-4C46-B9DB-72856281834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A2:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -1291,43 +1291,26 @@
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" ht="12.6" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.6" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1336,7 +1319,7 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1344,7 +1327,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.6" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1353,7 +1336,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -1361,24 +1344,24 @@
     </row>
     <row r="5" spans="1:5" ht="12.6" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.6" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -1387,7 +1370,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1395,58 +1378,58 @@
     </row>
     <row r="7" spans="1:5" ht="12.6" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.6" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.6" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1455,7 +1438,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1463,41 +1446,41 @@
     </row>
     <row r="11" spans="1:5" ht="12.6" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.6" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.6" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1506,7 +1489,7 @@
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
@@ -1514,50 +1497,50 @@
     </row>
     <row r="14" spans="1:5" ht="12.6" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.6" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
@@ -1565,24 +1548,24 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -1591,7 +1574,7 @@
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
@@ -1599,24 +1582,24 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
@@ -1625,7 +1608,7 @@
         <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -1633,7 +1616,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -1642,7 +1625,7 @@
         <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>26</v>
@@ -1650,16 +1633,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>26</v>
@@ -1667,50 +1650,50 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -1718,10 +1701,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>88</v>
@@ -1730,12 +1713,12 @@
         <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
@@ -1744,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>52</v>
@@ -1752,33 +1735,33 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>56</v>
@@ -1786,30 +1769,30 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>82</v>
@@ -1820,41 +1803,41 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>67</v>
@@ -1863,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>52</v>
@@ -1871,24 +1854,24 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -1897,7 +1880,7 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>71</v>
@@ -1905,52 +1888,69 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
